--- a/biology/Botanique/Liste_des_parcs_de_New_York_nommés_d'après_les_individus_et_la_culture_juifs/Liste_des_parcs_de_New_York_nommés_d'après_les_individus_et_la_culture_juifs.xlsx
+++ b/biology/Botanique/Liste_des_parcs_de_New_York_nommés_d'après_les_individus_et_la_culture_juifs/Liste_des_parcs_de_New_York_nommés_d'après_les_individus_et_la_culture_juifs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_de_New_York_nomm%C3%A9s_d%27apr%C3%A8s_les_individus_et_la_culture_juifs</t>
+          <t>Liste_des_parcs_de_New_York_nommés_d'après_les_individus_et_la_culture_juifs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le système de parcs géré par la ville de New York, il existe de nombreux parcs qui portent soit le nom d’individus juifs, soit des monuments liés à leur culture et à leur histoire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_de_New_York_nomm%C3%A9s_d%27apr%C3%A8s_les_individus_et_la_culture_juifs</t>
+          <t>Liste_des_parcs_de_New_York_nommés_d'après_les_individus_et_la_culture_juifs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,37 +523,39 @@
           <t>Manhattan</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Abe Lebewohl Park[1],[2]
-Asser Levy Recreation Center[3]
-Baruch Playground[4],[5]
-Bella Abzug Park[6],[7]
-Gustave Hartman Triangle[8],[9]
-Jacob H. Schiff Playground[10]
-Schiff Malls[11],[12],[13]
-Jacob Joseph Playground[14],[15]
-Jacob K Javits Playground[16]
-Montefiore Park[17]
-Nathan Straus Playground[18]
-Straus Park[19]
-Straus Square[20]
-Peretz Square[21],[22]
-Sidney Hillman Playground[23]
-Sol Bloom Playground[24]
-Sol Lain Playground[25]
-Sophie Irene Loeb Playground[26]
-Stanley Isaacs Playground[27]
-Vladeck Park[28]
-American Memorial to Six Million Jews of Europe (Riverside Park)[29]
-Charles and Murray Gordon memorial (Fort Washington Park)[30]
-Emma Lazarus Memorial Plaque (Battery Park)[31]
-Jerusalem Grove (Battery Park)[32]
-The Immigrants Sculpture (Battery Park)[33]
-Gertrude Stein monument (Bryant Park)[34],[35]
-Jewish Tercentenary Monument (Peter Minuit Plaza)[36]
-Loeb Memorial Fountain (Central Park)[37],[38]
-Schiff Fountain (Seward Park)[39]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Abe Lebewohl Park,
+Asser Levy Recreation Center
+Baruch Playground,
+Bella Abzug Park,
+Gustave Hartman Triangle,
+Jacob H. Schiff Playground
+Schiff Malls
+Jacob Joseph Playground,
+Jacob K Javits Playground
+Montefiore Park
+Nathan Straus Playground
+Straus Park
+Straus Square
+Peretz Square,
+Sidney Hillman Playground
+Sol Bloom Playground
+Sol Lain Playground
+Sophie Irene Loeb Playground
+Stanley Isaacs Playground
+Vladeck Park
+American Memorial to Six Million Jews of Europe (Riverside Park)
+Charles and Murray Gordon memorial (Fort Washington Park)
+Emma Lazarus Memorial Plaque (Battery Park)
+Jerusalem Grove (Battery Park)
+The Immigrants Sculpture (Battery Park)
+Gertrude Stein monument (Bryant Park),
+Jewish Tercentenary Monument (Peter Minuit Plaza)
+Loeb Memorial Fountain (Central Park),
+Schiff Fountain (Seward Park)</t>
         </is>
       </c>
     </row>
@@ -551,7 +565,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_de_New_York_nomm%C3%A9s_d%27apr%C3%A8s_les_individus_et_la_culture_juifs</t>
+          <t>Liste_des_parcs_de_New_York_nommés_d'après_les_individus_et_la_culture_juifs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,13 +583,15 @@
           <t>Bronx</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ben Abrams Playground[40]
-Hank Greenberg Ballfield[41]
-Heinrich Heine Fountain (Joyce Kilmer Park)[42]
-Keltch Park[43],[44]
-Netanyahu Memorial (Pelham Parkway)[45],[46]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ben Abrams Playground
+Hank Greenberg Ballfield
+Heinrich Heine Fountain (Joyce Kilmer Park)
+Keltch Park,
+Netanyahu Memorial (Pelham Parkway),</t>
         </is>
       </c>
     </row>
@@ -585,7 +601,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_de_New_York_nomm%C3%A9s_d%27apr%C3%A8s_les_individus_et_la_culture_juifs</t>
+          <t>Liste_des_parcs_de_New_York_nommés_d'après_les_individus_et_la_culture_juifs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -603,21 +619,23 @@
           <t>Brooklyn</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Alben Triangle[47],[48]
-Asser Levy Park[49]
-Babi Yar Triangle[50]
-Colonel David Marcus Playground[51],[52]
-Harold W. Cohn Memorial Square[53]
-Kolbert Playground[54]
-Harry Maze Playground[55]
-Holocaust Memorial Park[56]
-Jacob Joffe Field[57]
-Kaiser Park[58]
-Rapaport Playground[59]
-Sobel Green[60]
-Zion Triangle[61]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alben Triangle,
+Asser Levy Park
+Babi Yar Triangle
+Colonel David Marcus Playground,
+Harold W. Cohn Memorial Square
+Kolbert Playground
+Harry Maze Playground
+Holocaust Memorial Park
+Jacob Joffe Field
+Kaiser Park
+Rapaport Playground
+Sobel Green
+Zion Triangle</t>
         </is>
       </c>
     </row>
@@ -627,7 +645,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_de_New_York_nomm%C3%A9s_d%27apr%C3%A8s_les_individus_et_la_culture_juifs</t>
+          <t>Liste_des_parcs_de_New_York_nommés_d'après_les_individus_et_la_culture_juifs</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -645,19 +663,21 @@
           <t>Queens</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cardozo Playground[62]
-Federoff Triangle[63],[64]
-Gwirtzman Triangle[65],[66]
-Haym Salomon Square[67]
-Ilse Metzger Sitting Area (Flushing Meadows-Corona Park)[68]
-Sobelsohn Playground[69]
-Rabbi Kirshblum Triangle[70]
-Wallenberg Square[71]
-Job Sculpture (Forest Park)[72]
-Theodor Herzl Memorial (Freedom Square)[73]
-Yitzchak Rabin Walk (Flushing Meadows-Corona Park)[74]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cardozo Playground
+Federoff Triangle,
+Gwirtzman Triangle,
+Haym Salomon Square
+Ilse Metzger Sitting Area (Flushing Meadows-Corona Park)
+Sobelsohn Playground
+Rabbi Kirshblum Triangle
+Wallenberg Square
+Job Sculpture (Forest Park)
+Theodor Herzl Memorial (Freedom Square)
+Yitzchak Rabin Walk (Flushing Meadows-Corona Park)</t>
         </is>
       </c>
     </row>
@@ -667,7 +687,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_de_New_York_nomm%C3%A9s_d%27apr%C3%A8s_les_individus_et_la_culture_juifs</t>
+          <t>Liste_des_parcs_de_New_York_nommés_d'après_les_individus_et_la_culture_juifs</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -685,9 +705,11 @@
           <t>Staten Island</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Levy Playground[75]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Levy Playground
 ↑ « Abe Lebewohl Park : NYC Parks », New York City Department of Parks and Recreation (consulté le 21 février 2020)
 ↑ « Remembering a Deli Man : New York Times », New York Times (consulté le 21 février 2020)
 ↑ « Asser Levy Recreation Center : NYC Parks », New York City Department of Parks and Recreation (consulté le 21 février 2020)
